--- a/src/Data/Nidhi_tasks.xlsx
+++ b/src/Data/Nidhi_tasks.xlsx
@@ -14,20 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>ListName</t>
   </si>
   <si>
-    <t>ListID</t>
-  </si>
-  <si>
-    <t>FolderName</t>
-  </si>
-  <si>
-    <t>SpaceID</t>
-  </si>
-  <si>
     <t>TaskID</t>
   </si>
   <si>
@@ -40,69 +31,27 @@
     <t>TaskDueDate</t>
   </si>
   <si>
-    <t>ParentTaskID</t>
-  </si>
-  <si>
     <t>EstimatedTime</t>
   </si>
   <si>
     <t>TaskPriority</t>
   </si>
   <si>
-    <t>TaskStatus</t>
-  </si>
-  <si>
-    <t>AssignByPersonDetails</t>
-  </si>
-  <si>
     <t>TaskAssigneesList</t>
   </si>
   <si>
-    <t>WatchersList</t>
-  </si>
-  <si>
-    <t>TaskCreatedDate</t>
-  </si>
-  <si>
-    <t>TaskUpdateDate</t>
-  </si>
-  <si>
-    <t>TaskDateClosed</t>
-  </si>
-  <si>
-    <t>TaskDateDone</t>
-  </si>
-  <si>
-    <t>TaskTags</t>
-  </si>
-  <si>
-    <t>TaskDependencies</t>
-  </si>
-  <si>
     <t>TaskIsMilestone</t>
   </si>
   <si>
     <t>TaskIntensity</t>
   </si>
   <si>
-    <t>TaskCheckLists</t>
-  </si>
-  <si>
     <t>TaskScore</t>
   </si>
   <si>
     <t>ERPNext</t>
   </si>
   <si>
-    <t>901600183071</t>
-  </si>
-  <si>
-    <t>REAL Office</t>
-  </si>
-  <si>
-    <t>90020386592</t>
-  </si>
-  <si>
     <t>86cw8ap06</t>
   </si>
   <si>
@@ -118,43 +67,13 @@
     <t>29-08-2024</t>
   </si>
   <si>
-    <t>86cw76fxd</t>
-  </si>
-  <si>
-    <t>86cw7ngbk</t>
-  </si>
-  <si>
     <t>{"hrs": 0, "mins": 30, "time_estimate": 1800000}</t>
   </si>
   <si>
     <t>{'id': '3', 'color': '#6fddff', 'priority': 'normal', 'orderindex': '3'}</t>
   </si>
   <si>
-    <t>{"id": "subcat901600183071_subcat901600182452_subcat900202016677_subcat900202016557_subcat900202016465_subcat900201647299_subcat900201617233_subcat900201614169_subcat900201614016_subcat900201613908_subcat900201524923_subcat900900756278_subcat900900756275_subcat900900756272_subcat900600588774_sc900600504232_NTf0x6rB", "type": "closed", "color": "#008844", "status": "delievered", "orderindex": 4}</t>
-  </si>
-  <si>
-    <t>{"id": 67390920, "color": "", "email": "mitul@riveredgeanalytics.com", "username": "Mitul Solanki", "profilePicture": "https://attachments.clickup.com/profilePictures/67390920_BGd.jpg"}</t>
-  </si>
-  <si>
     <t>[{'id': 73264089, 'color': '#c51162', 'email': 'hr@riveredgeanalytics.com', 'initials': 'N', 'username': 'Nidhi', 'profilePicture': None}]</t>
-  </si>
-  <si>
-    <t>[{"id": 67390920, "color": "", "email": "mitul@riveredgeanalytics.com", "initials": "MS", "username": "Mitul Solanki", "profilePicture": "https://attachments.clickup.com/profilePictures/67390920_BGd.jpg"}, {"id": 67391743, "color": "#81b1ff", "email": "harshil@riveredgeanalytics.com", "initials": "H", "username": "Harshil", "profilePicture": "https://attachments.clickup.com/profilePictures/67391743_8EA.jpg"}]</t>
-  </si>
-  <si>
-    <t>15-08-2024</t>
-  </si>
-  <si>
-    <t>02-09-2024</t>
-  </si>
-  <si>
-    <t>03-09-2024</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[{"type": 1, "userid": "67390920", "task_id": "86cw7wzx2", "chain_id": null, "depends_on": "86cw8ap06", "date_created": "1723737053005", "workspace_id": "9002161791"}]</t>
   </si>
 </sst>
 </file>
@@ -516,13 +435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,200 +475,74 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45525</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="D3" s="2">
+        <v>45530</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45525</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2">
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="W2">
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="X2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45530</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y3">
+      <c r="K3">
         <v>1</v>
       </c>
     </row>

--- a/src/Data/Nidhi_tasks.xlsx
+++ b/src/Data/Nidhi_tasks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>ListName</t>
   </si>
@@ -31,6 +31,9 @@
     <t>TaskDueDate</t>
   </si>
   <si>
+    <t>TaskStatus</t>
+  </si>
+  <si>
     <t>EstimatedTime</t>
   </si>
   <si>
@@ -49,6 +52,12 @@
     <t>TaskScore</t>
   </si>
   <si>
+    <t>EstimatedTaskMin</t>
+  </si>
+  <si>
+    <t>AssignTo</t>
+  </si>
+  <si>
     <t>ERPNext</t>
   </si>
   <si>
@@ -61,28 +70,37 @@
     <t>Nidhi - provide sample demo filled form</t>
   </si>
   <si>
+    <t>21-08-2024</t>
+  </si>
+  <si>
+    <t>26-08-2024</t>
+  </si>
+  <si>
     <t>22-08-2024</t>
   </si>
   <si>
     <t>29-08-2024</t>
   </si>
   <si>
-    <t>{"hrs": 0, "mins": 30, "time_estimate": 1800000}</t>
-  </si>
-  <si>
-    <t>{'id': '3', 'color': '#6fddff', 'priority': 'normal', 'orderindex': '3'}</t>
+    <t>delievered</t>
+  </si>
+  <si>
+    <t>{'hrs': 0, 'mins': 30, 'time_estimate': 1800000}</t>
+  </si>
+  <si>
+    <t>normal</t>
   </si>
   <si>
     <t>[{'id': 73264089, 'color': '#c51162', 'email': 'hr@riveredgeanalytics.com', 'initials': 'N', 'username': 'Nidhi', 'profilePicture': None}]</t>
+  </si>
+  <si>
+    <t>Nidhi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -135,12 +153,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,75 +492,102 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45525</v>
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2">
         <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45530</v>
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3">
         <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/Data/Nidhi_tasks.xlsx
+++ b/src/Data/Nidhi_tasks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>ListName</t>
   </si>
@@ -52,6 +52,9 @@
     <t>TaskScore</t>
   </si>
   <si>
+    <t>TaskCreatedDate</t>
+  </si>
+  <si>
     <t>EstimatedTaskMin</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>[{'id': 73264089, 'color': '#c51162', 'email': 'hr@riveredgeanalytics.com', 'initials': 'N', 'username': 'Nidhi', 'profilePicture': None}]</t>
+  </si>
+  <si>
+    <t>15-08-2024</t>
   </si>
   <si>
     <t>Nidhi</t>
@@ -452,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,34 +507,37 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -539,40 +548,43 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -583,11 +595,14 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
-        <v>26</v>
+      <c r="O3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
